--- a/data/Lakes/LakeKoitiata_919f8c7962.xlsx
+++ b/data/Lakes/LakeKoitiata_919f8c7962.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -644,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -679,7 +679,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -757,7 +757,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -866,7 +866,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -905,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -983,7 +983,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8324,7 +8324,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8667,7 +8667,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8973,7 +8973,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">

--- a/data/Lakes/LakeKoitiata_919f8c7962.xlsx
+++ b/data/Lakes/LakeKoitiata_919f8c7962.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="240">
   <si>
     <t>site name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>1.900</t>
   </si>
   <si>
-    <t>44</t>
+    <t>44.0</t>
   </si>
   <si>
     <t>1.038</t>
@@ -88,7 +88,7 @@
     <t>&lt;1.900</t>
   </si>
   <si>
-    <t>30</t>
+    <t>30.0</t>
   </si>
   <si>
     <t>1.090</t>
@@ -109,7 +109,7 @@
     <t>3.800</t>
   </si>
   <si>
-    <t>87</t>
+    <t>87.0</t>
   </si>
   <si>
     <t>0.03100</t>
@@ -118,7 +118,7 @@
     <t>2.400</t>
   </si>
   <si>
-    <t>95</t>
+    <t>95.0</t>
   </si>
   <si>
     <t>1.100</t>
@@ -130,7 +130,7 @@
     <t>2.200</t>
   </si>
   <si>
-    <t>16</t>
+    <t>16.0</t>
   </si>
   <si>
     <t>1.130</t>
@@ -139,7 +139,7 @@
     <t>0.01900</t>
   </si>
   <si>
-    <t>&lt;4</t>
+    <t>&lt;4.0</t>
   </si>
   <si>
     <t>0.9600</t>
@@ -151,7 +151,7 @@
     <t>4.100</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>1.050</t>
@@ -199,7 +199,7 @@
     <t>0.02100</t>
   </si>
   <si>
-    <t>4</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>0.9800</t>
@@ -211,7 +211,7 @@
     <t>19.000</t>
   </si>
   <si>
-    <t>25</t>
+    <t>25.0</t>
   </si>
   <si>
     <t>9.270</t>
@@ -232,7 +232,7 @@
     <t>6.700</t>
   </si>
   <si>
-    <t>12</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>7.960</t>
@@ -322,7 +322,7 @@
     <t>3.100</t>
   </si>
   <si>
-    <t>67</t>
+    <t>67.0</t>
   </si>
   <si>
     <t>8.130</t>
@@ -334,7 +334,7 @@
     <t>0.00320</t>
   </si>
   <si>
-    <t>54</t>
+    <t>54.0</t>
   </si>
   <si>
     <t>0.00550</t>
@@ -343,6 +343,9 @@
     <t>5.300</t>
   </si>
   <si>
+    <t>16.4</t>
+  </si>
+  <si>
     <t>7.750</t>
   </si>
   <si>
@@ -358,7 +361,7 @@
     <t>0.0190</t>
   </si>
   <si>
-    <t>39</t>
+    <t>39.2</t>
   </si>
   <si>
     <t>8.380</t>
@@ -376,7 +379,7 @@
     <t>0.0240</t>
   </si>
   <si>
-    <t>21</t>
+    <t>20.8</t>
   </si>
   <si>
     <t>7.610</t>
@@ -415,7 +418,7 @@
     <t>0.0210</t>
   </si>
   <si>
-    <t>138</t>
+    <t>138.0</t>
   </si>
   <si>
     <t>6.800</t>
@@ -457,7 +460,7 @@
     <t>0.0160</t>
   </si>
   <si>
-    <t>53</t>
+    <t>52.8</t>
   </si>
   <si>
     <t>7.600</t>
@@ -466,7 +469,7 @@
     <t>5.000</t>
   </si>
   <si>
-    <t>34</t>
+    <t>34.4</t>
   </si>
   <si>
     <t>7.520</t>
@@ -478,7 +481,7 @@
     <t>0.0100</t>
   </si>
   <si>
-    <t>310</t>
+    <t>310.4</t>
   </si>
   <si>
     <t>8.260</t>
@@ -568,6 +571,9 @@
     <t>0.00170</t>
   </si>
   <si>
+    <t>25.2</t>
+  </si>
+  <si>
     <t>6.050</t>
   </si>
   <si>
@@ -586,12 +592,96 @@
     <t>1.000</t>
   </si>
   <si>
-    <t>32</t>
+    <t>32.0</t>
   </si>
   <si>
     <t>8.910</t>
   </si>
   <si>
+    <t>0.00270</t>
+  </si>
+  <si>
+    <t>4.800</t>
+  </si>
+  <si>
+    <t>9.030</t>
+  </si>
+  <si>
+    <t>0.0010</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>8.620</t>
+  </si>
+  <si>
+    <t>0.02000</t>
+  </si>
+  <si>
+    <t>0.00690</t>
+  </si>
+  <si>
+    <t>0.02550</t>
+  </si>
+  <si>
+    <t>7.930</t>
+  </si>
+  <si>
+    <t>0.01400</t>
+  </si>
+  <si>
+    <t>0.00000</t>
+  </si>
+  <si>
+    <t>&lt;0.0500</t>
+  </si>
+  <si>
+    <t>8.080</t>
+  </si>
+  <si>
+    <t>0.0520</t>
+  </si>
+  <si>
+    <t>1.740</t>
+  </si>
+  <si>
+    <t>0.08500</t>
+  </si>
+  <si>
+    <t>0.00010</t>
+  </si>
+  <si>
+    <t>7.490</t>
+  </si>
+  <si>
+    <t>0.0470</t>
+  </si>
+  <si>
+    <t>1.280</t>
+  </si>
+  <si>
+    <t>0.03700</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>8.570</t>
+  </si>
+  <si>
+    <t>1.270</t>
+  </si>
+  <si>
+    <t>0.00260</t>
+  </si>
+  <si>
+    <t>8.860</t>
+  </si>
+  <si>
+    <t>1.140</t>
+  </si>
+  <si>
     <t>Science - Lakes Sampling</t>
   </si>
   <si>
@@ -626,6 +716,9 @@
   </si>
   <si>
     <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+  </si>
+  <si>
+    <t>APHA Online Edition Method 4500 NH3 H.</t>
   </si>
   <si>
     <t>g/m3</t>
@@ -1002,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1051,13 +1144,13 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1077,13 +1170,13 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -1103,13 +1196,13 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -1129,10 +1222,10 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -1152,10 +1245,10 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -1175,13 +1268,13 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -1201,13 +1294,13 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -1227,13 +1320,13 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -1253,10 +1346,10 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -1276,10 +1369,10 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -1299,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F12" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G12" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -1325,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G13" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -1351,13 +1444,13 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -1377,10 +1470,10 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -1400,10 +1493,10 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -1423,13 +1516,13 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G17" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H17">
         <v>200</v>
@@ -1449,13 +1542,13 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G18" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -1475,13 +1568,13 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G19" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H19">
         <v>200</v>
@@ -1501,10 +1594,10 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H20">
         <v>200</v>
@@ -1524,10 +1617,10 @@
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H21">
         <v>200</v>
@@ -1547,13 +1640,13 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H22">
         <v>200</v>
@@ -1573,13 +1666,13 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H23">
         <v>200</v>
@@ -1599,13 +1692,13 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H24">
         <v>200</v>
@@ -1625,10 +1718,10 @@
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H25">
         <v>200</v>
@@ -1648,10 +1741,10 @@
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H26">
         <v>200</v>
@@ -1671,13 +1764,13 @@
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H27">
         <v>200</v>
@@ -1697,13 +1790,13 @@
         <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -1723,13 +1816,13 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H29">
         <v>200</v>
@@ -1749,10 +1842,10 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H30">
         <v>200</v>
@@ -1772,10 +1865,10 @@
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H31">
         <v>200</v>
@@ -1795,13 +1888,13 @@
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F32" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G32" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -1821,13 +1914,13 @@
         <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F33" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -1847,13 +1940,13 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F34" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G34" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H34">
         <v>200</v>
@@ -1873,10 +1966,10 @@
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F35" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -1896,10 +1989,10 @@
         <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F36" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H36">
         <v>200</v>
@@ -1919,13 +2012,13 @@
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G37" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H37">
         <v>200</v>
@@ -1945,13 +2038,13 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F38" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G38" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H38">
         <v>200</v>
@@ -1971,13 +2064,13 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F39" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H39">
         <v>200</v>
@@ -1997,10 +2090,10 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H40">
         <v>200</v>
@@ -2020,10 +2113,10 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F41" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H41">
         <v>200</v>
@@ -2043,13 +2136,13 @@
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F42" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G42" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -2069,13 +2162,13 @@
         <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F43" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -2095,13 +2188,13 @@
         <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G44" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -2121,10 +2214,10 @@
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F45" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -2144,10 +2237,10 @@
         <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F46" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2167,13 +2260,13 @@
         <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F47" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G47" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2193,13 +2286,13 @@
         <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F48" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G48" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2219,13 +2312,13 @@
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F49" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G49" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2245,10 +2338,10 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F50" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2268,10 +2361,10 @@
         <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F51" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2291,13 +2384,13 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F52" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G52" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2317,13 +2410,13 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F53" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G53" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2343,13 +2436,13 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F54" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G54" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2369,10 +2462,10 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2392,10 +2485,10 @@
         <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F56" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2415,13 +2508,13 @@
         <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F57" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G57" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2441,13 +2534,13 @@
         <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F58" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G58" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2467,13 +2560,13 @@
         <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G59" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2493,13 +2586,13 @@
         <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F60" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G60" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2519,10 +2612,10 @@
         <v>56</v>
       </c>
       <c r="E61" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F61" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2542,10 +2635,10 @@
         <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F62" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2565,13 +2658,13 @@
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F63" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G63" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2594,13 +2687,13 @@
         <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F64" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G64" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2623,13 +2716,13 @@
         <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F65" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G65" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2652,7 +2745,7 @@
         <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G66" t="s">
         <v>8</v>
@@ -2678,13 +2771,13 @@
         <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F67" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G67" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2707,10 +2800,10 @@
         <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F68" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2733,10 +2826,10 @@
         <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F69" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2759,13 +2852,13 @@
         <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F70" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G70" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2785,13 +2878,13 @@
         <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F71" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G71" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2811,13 +2904,13 @@
         <v>61</v>
       </c>
       <c r="E72" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F72" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G72" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2837,13 +2930,13 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F73" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G73" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2863,10 +2956,10 @@
         <v>62</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F74" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2886,10 +2979,10 @@
         <v>60</v>
       </c>
       <c r="E75" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F75" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2909,7 +3002,7 @@
         <v>63</v>
       </c>
       <c r="G76" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2929,13 +3022,13 @@
         <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F77" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G77" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2958,13 +3051,13 @@
         <v>64</v>
       </c>
       <c r="E78" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F78" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G78" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2987,13 +3080,13 @@
         <v>65</v>
       </c>
       <c r="E79" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F79" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G79" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -3016,7 +3109,7 @@
         <v>66</v>
       </c>
       <c r="E80" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G80" t="s">
         <v>8</v>
@@ -3042,13 +3135,13 @@
         <v>49</v>
       </c>
       <c r="E81" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F81" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G81" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -3071,10 +3164,10 @@
         <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F82" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -3097,10 +3190,10 @@
         <v>68</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F83" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -3123,7 +3216,7 @@
         <v>69</v>
       </c>
       <c r="G84" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3143,13 +3236,13 @@
         <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F85" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="G85" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H85">
         <v>500</v>
@@ -3172,13 +3265,13 @@
         <v>71</v>
       </c>
       <c r="E86" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F86" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G86" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3201,13 +3294,13 @@
         <v>72</v>
       </c>
       <c r="E87" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F87" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G87" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3230,7 +3323,7 @@
         <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G88" t="s">
         <v>8</v>
@@ -3256,13 +3349,13 @@
         <v>17</v>
       </c>
       <c r="E89" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F89" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G89" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3285,10 +3378,10 @@
         <v>50</v>
       </c>
       <c r="E90" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F90" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3311,10 +3404,10 @@
         <v>74</v>
       </c>
       <c r="E91" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F91" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3337,7 +3430,7 @@
         <v>75</v>
       </c>
       <c r="G92" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3357,13 +3450,13 @@
         <v>76</v>
       </c>
       <c r="E93" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F93" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="G93" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3383,13 +3476,13 @@
         <v>23</v>
       </c>
       <c r="E94" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F94" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G94" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3409,13 +3502,13 @@
         <v>61</v>
       </c>
       <c r="E95" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F95" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G95" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3435,13 +3528,13 @@
         <v>51</v>
       </c>
       <c r="E96" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F96" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G96" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3461,10 +3554,10 @@
         <v>77</v>
       </c>
       <c r="E97" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F97" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3484,10 +3577,10 @@
         <v>40</v>
       </c>
       <c r="E98" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F98" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3507,7 +3600,7 @@
         <v>78</v>
       </c>
       <c r="G99" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3527,13 +3620,13 @@
         <v>79</v>
       </c>
       <c r="E100" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F100" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="G100" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3556,13 +3649,13 @@
         <v>80</v>
       </c>
       <c r="E101" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G101" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3585,13 +3678,13 @@
         <v>38</v>
       </c>
       <c r="E102" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F102" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G102" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3614,7 +3707,7 @@
         <v>81</v>
       </c>
       <c r="E103" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G103" t="s">
         <v>8</v>
@@ -3640,13 +3733,13 @@
         <v>51</v>
       </c>
       <c r="E104" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G104" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3669,10 +3762,10 @@
         <v>82</v>
       </c>
       <c r="E105" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3695,10 +3788,10 @@
         <v>83</v>
       </c>
       <c r="E106" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F106" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3721,7 +3814,7 @@
         <v>84</v>
       </c>
       <c r="G107" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3741,13 +3834,13 @@
         <v>85</v>
       </c>
       <c r="E108" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F108" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="G108" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3770,13 +3863,13 @@
         <v>54</v>
       </c>
       <c r="E109" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F109" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G109" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3799,13 +3892,13 @@
         <v>38</v>
       </c>
       <c r="E110" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F110" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G110" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3828,7 +3921,7 @@
         <v>86</v>
       </c>
       <c r="E111" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G111" t="s">
         <v>8</v>
@@ -3854,13 +3947,13 @@
         <v>87</v>
       </c>
       <c r="E112" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F112" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G112" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3883,10 +3976,10 @@
         <v>88</v>
       </c>
       <c r="E113" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F113" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3909,10 +4002,10 @@
         <v>83</v>
       </c>
       <c r="E114" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3935,7 +4028,7 @@
         <v>89</v>
       </c>
       <c r="G115" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3955,13 +4048,13 @@
         <v>90</v>
       </c>
       <c r="E116" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="G116" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -3984,13 +4077,13 @@
         <v>30</v>
       </c>
       <c r="E117" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G117" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -4013,13 +4106,13 @@
         <v>65</v>
       </c>
       <c r="E118" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G118" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -4042,7 +4135,7 @@
         <v>91</v>
       </c>
       <c r="E119" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4068,13 +4161,13 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G120" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -4097,10 +4190,10 @@
         <v>92</v>
       </c>
       <c r="E121" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -4123,10 +4216,10 @@
         <v>93</v>
       </c>
       <c r="E122" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F122" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -4149,7 +4242,7 @@
         <v>94</v>
       </c>
       <c r="G123" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -4169,13 +4262,13 @@
         <v>95</v>
       </c>
       <c r="E124" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F124" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="G124" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -4198,13 +4291,13 @@
         <v>96</v>
       </c>
       <c r="E125" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F125" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G125" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4227,13 +4320,13 @@
         <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F126" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G126" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4256,7 +4349,7 @@
         <v>97</v>
       </c>
       <c r="E127" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4282,13 +4375,13 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F128" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G128" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4311,10 +4404,10 @@
         <v>98</v>
       </c>
       <c r="E129" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F129" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4337,10 +4430,10 @@
         <v>21</v>
       </c>
       <c r="E130" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F130" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4363,7 +4456,7 @@
         <v>99</v>
       </c>
       <c r="G131" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4383,13 +4476,13 @@
         <v>100</v>
       </c>
       <c r="E132" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F132" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="G132" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4412,13 +4505,13 @@
         <v>101</v>
       </c>
       <c r="E133" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F133" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G133" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4441,13 +4534,13 @@
         <v>102</v>
       </c>
       <c r="E134" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F134" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G134" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4470,7 +4563,7 @@
         <v>91</v>
       </c>
       <c r="E135" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4496,13 +4589,13 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F136" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G136" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4525,10 +4618,10 @@
         <v>39</v>
       </c>
       <c r="E137" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F137" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4551,10 +4644,10 @@
         <v>83</v>
       </c>
       <c r="E138" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F138" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4577,13 +4670,13 @@
         <v>76</v>
       </c>
       <c r="E139" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F139" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="G139" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4606,13 +4699,13 @@
         <v>80</v>
       </c>
       <c r="E140" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F140" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G140" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4635,13 +4728,13 @@
         <v>24</v>
       </c>
       <c r="E141" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F141" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G141" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4664,7 +4757,7 @@
         <v>103</v>
       </c>
       <c r="E142" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G142" t="s">
         <v>8</v>
@@ -4690,13 +4783,13 @@
         <v>51</v>
       </c>
       <c r="E143" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F143" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G143" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4719,10 +4812,10 @@
         <v>104</v>
       </c>
       <c r="E144" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F144" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4745,10 +4838,10 @@
         <v>32</v>
       </c>
       <c r="E145" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F145" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4771,7 +4864,7 @@
         <v>105</v>
       </c>
       <c r="G146" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4791,13 +4884,13 @@
         <v>79</v>
       </c>
       <c r="E147" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F147" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="G147" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4820,13 +4913,13 @@
         <v>18</v>
       </c>
       <c r="E148" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F148" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G148" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4849,13 +4942,13 @@
         <v>106</v>
       </c>
       <c r="E149" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F149" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G149" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4878,7 +4971,7 @@
         <v>97</v>
       </c>
       <c r="E150" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G150" t="s">
         <v>8</v>
@@ -4904,13 +4997,13 @@
         <v>51</v>
       </c>
       <c r="E151" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F151" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G151" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4933,10 +5026,10 @@
         <v>35</v>
       </c>
       <c r="E152" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F152" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4959,10 +5052,10 @@
         <v>47</v>
       </c>
       <c r="E153" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F153" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -4985,7 +5078,7 @@
         <v>107</v>
       </c>
       <c r="G154" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -5005,13 +5098,13 @@
         <v>57</v>
       </c>
       <c r="E155" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F155" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G155" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -5034,13 +5127,13 @@
         <v>108</v>
       </c>
       <c r="E156" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F156" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G156" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -5060,16 +5153,16 @@
         <v>44550.47291666667</v>
       </c>
       <c r="D157" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E157" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F157" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G157" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -5089,10 +5182,10 @@
         <v>44550.47291666667</v>
       </c>
       <c r="D158" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E158" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G158" t="s">
         <v>8</v>
@@ -5118,13 +5211,13 @@
         <v>51</v>
       </c>
       <c r="E159" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F159" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G159" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -5144,13 +5237,13 @@
         <v>44550.47291666667</v>
       </c>
       <c r="D160" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E160" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F160" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -5170,13 +5263,13 @@
         <v>44550.47291666667</v>
       </c>
       <c r="D161" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E161" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F161" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -5196,10 +5289,10 @@
         <v>44580</v>
       </c>
       <c r="D162" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G162" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -5216,16 +5309,16 @@
         <v>44580.39930555555</v>
       </c>
       <c r="D163" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E163" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F163" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G163" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5248,13 +5341,13 @@
         <v>44</v>
       </c>
       <c r="E164" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F164" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G164" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5274,16 +5367,16 @@
         <v>44580.39930555555</v>
       </c>
       <c r="D165" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E165" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F165" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G165" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5303,10 +5396,10 @@
         <v>44580.39930555555</v>
       </c>
       <c r="D166" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E166" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G166" t="s">
         <v>8</v>
@@ -5332,13 +5425,13 @@
         <v>51</v>
       </c>
       <c r="E167" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F167" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G167" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5358,13 +5451,13 @@
         <v>44580.39930555555</v>
       </c>
       <c r="D168" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E168" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F168" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5384,13 +5477,13 @@
         <v>44580.39930555555</v>
       </c>
       <c r="D169" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E169" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F169" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5410,10 +5503,10 @@
         <v>44602</v>
       </c>
       <c r="D170" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G170" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5430,16 +5523,16 @@
         <v>44602.39166666667</v>
       </c>
       <c r="D171" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E171" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F171" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G171" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5462,13 +5555,13 @@
         <v>18</v>
       </c>
       <c r="E172" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F172" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G172" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5488,16 +5581,16 @@
         <v>44602.39166666667</v>
       </c>
       <c r="D173" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E173" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F173" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G173" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5517,10 +5610,10 @@
         <v>44602.39166666667</v>
       </c>
       <c r="D174" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E174" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G174" t="s">
         <v>8</v>
@@ -5546,13 +5639,13 @@
         <v>100</v>
       </c>
       <c r="E175" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F175" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G175" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5572,13 +5665,13 @@
         <v>44602.39166666667</v>
       </c>
       <c r="D176" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E176" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F176" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5601,10 +5694,10 @@
         <v>28</v>
       </c>
       <c r="E177" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F177" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5624,10 +5717,10 @@
         <v>44621</v>
       </c>
       <c r="D178" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G178" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5644,16 +5737,16 @@
         <v>44621.46111111111</v>
       </c>
       <c r="D179" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E179" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F179" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G179" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5673,16 +5766,16 @@
         <v>44621.46111111111</v>
       </c>
       <c r="D180" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E180" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F180" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G180" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5705,13 +5798,13 @@
         <v>61</v>
       </c>
       <c r="E181" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F181" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G181" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5731,10 +5824,10 @@
         <v>44621.46111111111</v>
       </c>
       <c r="D182" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E182" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G182" t="s">
         <v>8</v>
@@ -5760,13 +5853,13 @@
         <v>51</v>
       </c>
       <c r="E183" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F183" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G183" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5786,13 +5879,13 @@
         <v>44621.46111111111</v>
       </c>
       <c r="D184" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E184" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F184" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5812,13 +5905,13 @@
         <v>44621.46111111111</v>
       </c>
       <c r="D185" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E185" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F185" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5838,10 +5931,10 @@
         <v>44656</v>
       </c>
       <c r="D186" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G186" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5861,13 +5954,13 @@
         <v>79</v>
       </c>
       <c r="E187" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F187" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G187" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5890,13 +5983,13 @@
         <v>101</v>
       </c>
       <c r="E188" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F188" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G188" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5919,13 +6012,13 @@
         <v>61</v>
       </c>
       <c r="E189" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F189" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G189" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5945,10 +6038,10 @@
         <v>44656.42708333334</v>
       </c>
       <c r="D190" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E190" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G190" t="s">
         <v>8</v>
@@ -5974,13 +6067,13 @@
         <v>51</v>
       </c>
       <c r="E191" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F191" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G191" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -6000,13 +6093,13 @@
         <v>44656.42708333334</v>
       </c>
       <c r="D192" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E192" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F192" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -6029,10 +6122,10 @@
         <v>83</v>
       </c>
       <c r="E193" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F193" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -6055,7 +6148,7 @@
         <v>89</v>
       </c>
       <c r="G194" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -6072,16 +6165,16 @@
         <v>44767.42152777778</v>
       </c>
       <c r="D195" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E195" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F195" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G195" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H195">
         <v>600</v>
@@ -6104,13 +6197,13 @@
         <v>80</v>
       </c>
       <c r="E196" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F196" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G196" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -6130,16 +6223,16 @@
         <v>44767.42152777778</v>
       </c>
       <c r="D197" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E197" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F197" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G197" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -6159,10 +6252,10 @@
         <v>44767.42152777778</v>
       </c>
       <c r="D198" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E198" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G198" t="s">
         <v>8</v>
@@ -6185,16 +6278,16 @@
         <v>44767.42152777778</v>
       </c>
       <c r="D199" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E199" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F199" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G199" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -6214,13 +6307,13 @@
         <v>44767.42152777778</v>
       </c>
       <c r="D200" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E200" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F200" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -6240,13 +6333,13 @@
         <v>44767.42152777778</v>
       </c>
       <c r="D201" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E201" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F201" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6269,7 +6362,7 @@
         <v>84</v>
       </c>
       <c r="G202" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6286,16 +6379,16 @@
         <v>44774.50208333333</v>
       </c>
       <c r="D203" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E203" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F203" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G203" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6318,13 +6411,13 @@
         <v>80</v>
       </c>
       <c r="E204" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F204" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G204" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6347,13 +6440,13 @@
         <v>41</v>
       </c>
       <c r="E205" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F205" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G205" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6373,10 +6466,10 @@
         <v>44774.50208333333</v>
       </c>
       <c r="D206" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E206" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G206" t="s">
         <v>8</v>
@@ -6399,16 +6492,16 @@
         <v>44774.50208333333</v>
       </c>
       <c r="D207" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E207" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F207" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G207" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6428,13 +6521,13 @@
         <v>44774.50208333333</v>
       </c>
       <c r="D208" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E208" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F208" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H208">
         <v>500</v>
@@ -6454,13 +6547,13 @@
         <v>44774.50208333333</v>
       </c>
       <c r="D209" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E209" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F209" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6480,10 +6573,10 @@
         <v>44811.00048611111</v>
       </c>
       <c r="D210" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G210" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6503,13 +6596,13 @@
         <v>79</v>
       </c>
       <c r="E211" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F211" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G211" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6532,13 +6625,13 @@
         <v>108</v>
       </c>
       <c r="E212" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F212" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G212" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H212">
         <v>600</v>
@@ -6561,13 +6654,13 @@
         <v>61</v>
       </c>
       <c r="E213" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F213" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G213" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6587,10 +6680,10 @@
         <v>44811.41666666666</v>
       </c>
       <c r="D214" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E214" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G214" t="s">
         <v>8</v>
@@ -6613,16 +6706,16 @@
         <v>44811.41666666666</v>
       </c>
       <c r="D215" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E215" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F215" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G215" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6645,10 +6738,10 @@
         <v>88</v>
       </c>
       <c r="E216" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F216" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6671,10 +6764,10 @@
         <v>40</v>
       </c>
       <c r="E217" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F217" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6694,10 +6787,10 @@
         <v>44860.00048611111</v>
       </c>
       <c r="D218" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G218" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H218">
         <v>600</v>
@@ -6714,16 +6807,16 @@
         <v>44860.37152777778</v>
       </c>
       <c r="D219" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E219" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F219" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G219" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6746,13 +6839,13 @@
         <v>37</v>
       </c>
       <c r="E220" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F220" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G220" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -6772,16 +6865,16 @@
         <v>44860.37152777778</v>
       </c>
       <c r="D221" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E221" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F221" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G221" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H221">
         <v>600</v>
@@ -6801,10 +6894,10 @@
         <v>44860.37152777778</v>
       </c>
       <c r="D222" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E222" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G222" t="s">
         <v>8</v>
@@ -6830,13 +6923,13 @@
         <v>51</v>
       </c>
       <c r="E223" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F223" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G223" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6859,10 +6952,10 @@
         <v>88</v>
       </c>
       <c r="E224" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F224" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -6885,10 +6978,10 @@
         <v>36</v>
       </c>
       <c r="E225" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F225" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H225">
         <v>600</v>
@@ -6908,10 +7001,10 @@
         <v>44886.00048611111</v>
       </c>
       <c r="D226" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G226" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H226">
         <v>600</v>
@@ -6931,13 +7024,13 @@
         <v>76</v>
       </c>
       <c r="E227" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F227" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G227" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H227">
         <v>600</v>
@@ -6957,16 +7050,16 @@
         <v>44886.38263888889</v>
       </c>
       <c r="D228" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E228" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F228" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G228" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H228">
         <v>600</v>
@@ -6986,16 +7079,16 @@
         <v>44886.38263888889</v>
       </c>
       <c r="D229" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E229" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F229" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G229" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -7015,10 +7108,10 @@
         <v>44886.38263888889</v>
       </c>
       <c r="D230" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E230" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G230" t="s">
         <v>8</v>
@@ -7044,13 +7137,13 @@
         <v>51</v>
       </c>
       <c r="E231" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F231" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G231" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -7073,10 +7166,10 @@
         <v>50</v>
       </c>
       <c r="E232" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F232" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -7099,10 +7192,10 @@
         <v>21</v>
       </c>
       <c r="E233" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F233" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H233">
         <v>600</v>
@@ -7122,10 +7215,10 @@
         <v>44914.00048611111</v>
       </c>
       <c r="D234" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G234" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H234">
         <v>600</v>
@@ -7142,16 +7235,16 @@
         <v>44914.37430555555</v>
       </c>
       <c r="D235" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E235" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F235" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G235" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H235">
         <v>600</v>
@@ -7174,13 +7267,13 @@
         <v>23</v>
       </c>
       <c r="E236" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F236" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G236" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H236">
         <v>600</v>
@@ -7200,16 +7293,16 @@
         <v>44914.37430555555</v>
       </c>
       <c r="D237" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E237" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F237" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G237" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H237">
         <v>600</v>
@@ -7229,10 +7322,10 @@
         <v>44914.37430555555</v>
       </c>
       <c r="D238" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E238" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G238" t="s">
         <v>8</v>
@@ -7258,13 +7351,13 @@
         <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F239" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G239" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7284,13 +7377,13 @@
         <v>44914.37430555555</v>
       </c>
       <c r="D240" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E240" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F240" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7313,10 +7406,10 @@
         <v>26</v>
       </c>
       <c r="E241" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F241" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H241">
         <v>600</v>
@@ -7336,10 +7429,10 @@
         <v>44952.00048611111</v>
       </c>
       <c r="D242" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G242" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H242">
         <v>600</v>
@@ -7356,16 +7449,16 @@
         <v>44952.35972222222</v>
       </c>
       <c r="D243" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E243" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F243" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G243" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H243">
         <v>600</v>
@@ -7385,16 +7478,16 @@
         <v>44952.35972222222</v>
       </c>
       <c r="D244" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E244" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F244" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G244" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H244">
         <v>600</v>
@@ -7417,13 +7510,13 @@
         <v>61</v>
       </c>
       <c r="E245" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F245" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G245" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7443,10 +7536,10 @@
         <v>44952.35972222222</v>
       </c>
       <c r="D246" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E246" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G246" t="s">
         <v>8</v>
@@ -7469,16 +7562,16 @@
         <v>44952.35972222222</v>
       </c>
       <c r="D247" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E247" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F247" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G247" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7501,10 +7594,10 @@
         <v>35</v>
       </c>
       <c r="E248" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F248" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7527,10 +7620,10 @@
         <v>60</v>
       </c>
       <c r="E249" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F249" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H249">
         <v>600</v>
@@ -7550,10 +7643,10 @@
         <v>44978.00048611111</v>
       </c>
       <c r="D250" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G250" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H250">
         <v>600</v>
@@ -7570,16 +7663,16 @@
         <v>44978.40902777778</v>
       </c>
       <c r="D251" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E251" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F251" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G251" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H251">
         <v>600</v>
@@ -7602,13 +7695,13 @@
         <v>44</v>
       </c>
       <c r="E252" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F252" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G252" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H252">
         <v>600</v>
@@ -7631,13 +7724,13 @@
         <v>61</v>
       </c>
       <c r="E253" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F253" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G253" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7657,10 +7750,10 @@
         <v>44978.40902777778</v>
       </c>
       <c r="D254" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E254" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G254" t="s">
         <v>8</v>
@@ -7683,16 +7776,16 @@
         <v>44978.40902777778</v>
       </c>
       <c r="D255" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E255" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F255" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G255" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7712,13 +7805,13 @@
         <v>44978.40902777778</v>
       </c>
       <c r="D256" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E256" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F256" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H256">
         <v>600</v>
@@ -7741,10 +7834,10 @@
         <v>47</v>
       </c>
       <c r="E257" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F257" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H257">
         <v>600</v>
@@ -7764,10 +7857,10 @@
         <v>45008.00048611111</v>
       </c>
       <c r="D258" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G258" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H258">
         <v>600</v>
@@ -7787,13 +7880,13 @@
         <v>95</v>
       </c>
       <c r="E259" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F259" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G259" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H259">
         <v>600</v>
@@ -7813,16 +7906,16 @@
         <v>45008.43125</v>
       </c>
       <c r="D260" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E260" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F260" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G260" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H260">
         <v>600</v>
@@ -7845,13 +7938,13 @@
         <v>45</v>
       </c>
       <c r="E261" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F261" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G261" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -7871,10 +7964,10 @@
         <v>45008.43125</v>
       </c>
       <c r="D262" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E262" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G262" t="s">
         <v>8</v>
@@ -7897,16 +7990,16 @@
         <v>45008.43125</v>
       </c>
       <c r="D263" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E263" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F263" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G263" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -7926,13 +8019,13 @@
         <v>45008.43125</v>
       </c>
       <c r="D264" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E264" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F264" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -7955,10 +8048,10 @@
         <v>40</v>
       </c>
       <c r="E265" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F265" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H265">
         <v>600</v>
@@ -7978,10 +8071,10 @@
         <v>45027.00048611111</v>
       </c>
       <c r="D266" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G266" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H266">
         <v>600</v>
@@ -7998,16 +8091,16 @@
         <v>45027.40972222222</v>
       </c>
       <c r="D267" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E267" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F267" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G267" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H267">
         <v>600</v>
@@ -8030,13 +8123,13 @@
         <v>30</v>
       </c>
       <c r="E268" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F268" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G268" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H268">
         <v>600</v>
@@ -8056,16 +8149,16 @@
         <v>45027.40972222222</v>
       </c>
       <c r="D269" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E269" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F269" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G269" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H269">
         <v>600</v>
@@ -8085,10 +8178,10 @@
         <v>45027.40972222222</v>
       </c>
       <c r="D270" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E270" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G270" t="s">
         <v>8</v>
@@ -8111,16 +8204,16 @@
         <v>45027.40972222222</v>
       </c>
       <c r="D271" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E271" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F271" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G271" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -8143,10 +8236,10 @@
         <v>46</v>
       </c>
       <c r="E272" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F272" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H272">
         <v>600</v>
@@ -8166,13 +8259,13 @@
         <v>45027.40972222222</v>
       </c>
       <c r="D273" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E273" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F273" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H273">
         <v>600</v>
@@ -8192,10 +8285,10 @@
         <v>45127.00048611111</v>
       </c>
       <c r="D274" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G274" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H274">
         <v>600</v>
@@ -8215,13 +8308,13 @@
         <v>57</v>
       </c>
       <c r="E275" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F275" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G275" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H275">
         <v>600</v>
@@ -8244,13 +8337,13 @@
         <v>23</v>
       </c>
       <c r="E276" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F276" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G276" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H276">
         <v>600</v>
@@ -8273,13 +8366,13 @@
         <v>61</v>
       </c>
       <c r="E277" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F277" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G277" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8299,10 +8392,10 @@
         <v>45127.47986111111</v>
       </c>
       <c r="D278" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E278" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G278" t="s">
         <v>8</v>
@@ -8328,13 +8421,13 @@
         <v>100</v>
       </c>
       <c r="E279" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F279" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G279" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8354,13 +8447,13 @@
         <v>45127.47986111111</v>
       </c>
       <c r="D280" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E280" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F280" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H280">
         <v>600</v>
@@ -8383,10 +8476,10 @@
         <v>47</v>
       </c>
       <c r="E281" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F281" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H281">
         <v>600</v>
@@ -8409,7 +8502,7 @@
         <v>89</v>
       </c>
       <c r="G282" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H282">
         <v>600</v>
@@ -8426,16 +8519,16 @@
         <v>45155.42291666667</v>
       </c>
       <c r="D283" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E283" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F283" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G283" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H283">
         <v>600</v>
@@ -8458,13 +8551,13 @@
         <v>23</v>
       </c>
       <c r="E284" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F284" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G284" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H284">
         <v>600</v>
@@ -8487,13 +8580,13 @@
         <v>41</v>
       </c>
       <c r="E285" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F285" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G285" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8513,10 +8606,10 @@
         <v>45155.42291666667</v>
       </c>
       <c r="D286" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E286" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G286" t="s">
         <v>8</v>
@@ -8542,13 +8635,13 @@
         <v>49</v>
       </c>
       <c r="E287" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F287" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G287" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8568,13 +8661,13 @@
         <v>45155.42291666667</v>
       </c>
       <c r="D288" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E288" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F288" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8597,10 +8690,10 @@
         <v>43</v>
       </c>
       <c r="E289" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F289" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H289">
         <v>600</v>
@@ -8620,10 +8713,10 @@
         <v>45197.00048611111</v>
       </c>
       <c r="D290" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G290" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H290">
         <v>600</v>
@@ -8640,16 +8733,16 @@
         <v>45197.31875</v>
       </c>
       <c r="D291" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E291" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F291" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G291" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H291">
         <v>500</v>
@@ -8672,13 +8765,13 @@
         <v>23</v>
       </c>
       <c r="E292" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F292" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G292" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H292">
         <v>600</v>
@@ -8698,16 +8791,16 @@
         <v>45197.31875</v>
       </c>
       <c r="D293" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E293" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F293" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G293" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8727,10 +8820,10 @@
         <v>45197.31875</v>
       </c>
       <c r="D294" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E294" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G294" t="s">
         <v>8</v>
@@ -8753,16 +8846,16 @@
         <v>45197.31875</v>
       </c>
       <c r="D295" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E295" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F295" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G295" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8782,13 +8875,13 @@
         <v>45197.31875</v>
       </c>
       <c r="D296" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E296" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F296" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -8808,13 +8901,13 @@
         <v>45197.31875</v>
       </c>
       <c r="D297" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E297" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F297" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H297">
         <v>600</v>
@@ -8834,10 +8927,10 @@
         <v>45210.00048611111</v>
       </c>
       <c r="D298" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G298" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H298">
         <v>600</v>
@@ -8854,16 +8947,16 @@
         <v>45210.45625</v>
       </c>
       <c r="D299" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E299" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F299" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G299" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H299">
         <v>600</v>
@@ -8886,13 +8979,13 @@
         <v>23</v>
       </c>
       <c r="E300" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F300" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G300" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H300">
         <v>600</v>
@@ -8912,16 +9005,16 @@
         <v>45210.45625</v>
       </c>
       <c r="D301" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="E301" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F301" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G301" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -8941,10 +9034,10 @@
         <v>45210.45625</v>
       </c>
       <c r="D302" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E302" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G302" t="s">
         <v>8</v>
@@ -8970,13 +9063,13 @@
         <v>95</v>
       </c>
       <c r="E303" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F303" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G303" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -8996,13 +9089,13 @@
         <v>45210.45625</v>
       </c>
       <c r="D304" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E304" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F304" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -9022,13 +9115,13 @@
         <v>45210.45625</v>
       </c>
       <c r="D305" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E305" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F305" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H305">
         <v>600</v>
@@ -9051,7 +9144,7 @@
         <v>84</v>
       </c>
       <c r="G306" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H306">
         <v>600</v>
@@ -9068,16 +9161,16 @@
         <v>45253.36944444444</v>
       </c>
       <c r="D307" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E307" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F307" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G307" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H307">
         <v>500</v>
@@ -9097,16 +9190,16 @@
         <v>45253.36944444444</v>
       </c>
       <c r="D308" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E308" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F308" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G308" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H308">
         <v>600</v>
@@ -9129,13 +9222,13 @@
         <v>19</v>
       </c>
       <c r="E309" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F309" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G309" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H309">
         <v>600</v>
@@ -9155,10 +9248,10 @@
         <v>45253.36944444444</v>
       </c>
       <c r="D310" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E310" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G310" t="s">
         <v>8</v>
@@ -9181,16 +9274,16 @@
         <v>45253.36944444444</v>
       </c>
       <c r="D311" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E311" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F311" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G311" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H311">
         <v>600</v>
@@ -9210,13 +9303,13 @@
         <v>45253.36944444444</v>
       </c>
       <c r="D312" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E312" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F312" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H312">
         <v>600</v>
@@ -9239,10 +9332,10 @@
         <v>32</v>
       </c>
       <c r="E313" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F313" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H313">
         <v>600</v>
@@ -9265,7 +9358,7 @@
         <v>89</v>
       </c>
       <c r="G314" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H314">
         <v>600</v>
@@ -9285,13 +9378,13 @@
         <v>17</v>
       </c>
       <c r="E315" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F315" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G315" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H315">
         <v>600</v>
@@ -9314,13 +9407,13 @@
         <v>23</v>
       </c>
       <c r="E316" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F316" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G316" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H316">
         <v>600</v>
@@ -9340,16 +9433,16 @@
         <v>45280.42361111111</v>
       </c>
       <c r="D317" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E317" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F317" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G317" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="H317">
         <v>600</v>
@@ -9369,10 +9462,10 @@
         <v>45280.42361111111</v>
       </c>
       <c r="D318" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E318" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G318" t="s">
         <v>8</v>
@@ -9395,16 +9488,16 @@
         <v>45280.42361111111</v>
       </c>
       <c r="D319" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E319" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F319" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G319" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="H319">
         <v>600</v>
@@ -9427,10 +9520,10 @@
         <v>50</v>
       </c>
       <c r="E320" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F320" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H320">
         <v>600</v>
@@ -9453,16 +9546,1728 @@
         <v>47</v>
       </c>
       <c r="E321" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F321" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H321">
         <v>600</v>
       </c>
       <c r="I321">
         <v>8.91</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" t="s">
+        <v>16</v>
+      </c>
+      <c r="C322" s="2">
+        <v>45308.00048611111</v>
+      </c>
+      <c r="D322" t="s">
+        <v>194</v>
+      </c>
+      <c r="G322" t="s">
+        <v>239</v>
+      </c>
+      <c r="H322">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" s="2">
+        <v>45308.4</v>
+      </c>
+      <c r="D323" t="s">
+        <v>76</v>
+      </c>
+      <c r="E323" t="s">
+        <v>222</v>
+      </c>
+      <c r="F323" t="s">
+        <v>232</v>
+      </c>
+      <c r="G323" t="s">
+        <v>235</v>
+      </c>
+      <c r="H323">
+        <v>600</v>
+      </c>
+      <c r="I323">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>11</v>
+      </c>
+      <c r="C324" s="2">
+        <v>45308.4</v>
+      </c>
+      <c r="D324" t="s">
+        <v>195</v>
+      </c>
+      <c r="E324" t="s">
+        <v>222</v>
+      </c>
+      <c r="F324" t="s">
+        <v>224</v>
+      </c>
+      <c r="G324" t="s">
+        <v>236</v>
+      </c>
+      <c r="H324">
+        <v>600</v>
+      </c>
+      <c r="I324">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" s="2">
+        <v>45308.4</v>
+      </c>
+      <c r="D325" t="s">
+        <v>185</v>
+      </c>
+      <c r="E325" t="s">
+        <v>222</v>
+      </c>
+      <c r="F325" t="s">
+        <v>225</v>
+      </c>
+      <c r="G325" t="s">
+        <v>237</v>
+      </c>
+      <c r="H325">
+        <v>600</v>
+      </c>
+      <c r="I325">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" t="s">
+        <v>8</v>
+      </c>
+      <c r="C326" s="2">
+        <v>45308.4</v>
+      </c>
+      <c r="D326" t="s">
+        <v>196</v>
+      </c>
+      <c r="E326" t="s">
+        <v>222</v>
+      </c>
+      <c r="G326" t="s">
+        <v>8</v>
+      </c>
+      <c r="H326">
+        <v>600</v>
+      </c>
+      <c r="I326">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" t="s">
+        <v>15</v>
+      </c>
+      <c r="C327" s="2">
+        <v>45308.4</v>
+      </c>
+      <c r="D327" t="s">
+        <v>197</v>
+      </c>
+      <c r="E327" t="s">
+        <v>222</v>
+      </c>
+      <c r="F327" t="s">
+        <v>233</v>
+      </c>
+      <c r="G327" t="s">
+        <v>238</v>
+      </c>
+      <c r="H327">
+        <v>600</v>
+      </c>
+      <c r="I327">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>13</v>
+      </c>
+      <c r="C328" s="2">
+        <v>45308.4</v>
+      </c>
+      <c r="D328" t="s">
+        <v>50</v>
+      </c>
+      <c r="E328" t="s">
+        <v>222</v>
+      </c>
+      <c r="F328" t="s">
+        <v>230</v>
+      </c>
+      <c r="H328">
+        <v>600</v>
+      </c>
+      <c r="I328">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329" s="2">
+        <v>45308.4</v>
+      </c>
+      <c r="D329" t="s">
+        <v>36</v>
+      </c>
+      <c r="E329" t="s">
+        <v>222</v>
+      </c>
+      <c r="F329" t="s">
+        <v>231</v>
+      </c>
+      <c r="H329">
+        <v>600</v>
+      </c>
+      <c r="I329">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>16</v>
+      </c>
+      <c r="C330" s="2">
+        <v>45344.00048611111</v>
+      </c>
+      <c r="D330" t="s">
+        <v>99</v>
+      </c>
+      <c r="G330" t="s">
+        <v>239</v>
+      </c>
+      <c r="H330">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" s="2">
+        <v>45344.43263888889</v>
+      </c>
+      <c r="D331" t="s">
+        <v>76</v>
+      </c>
+      <c r="E331" t="s">
+        <v>222</v>
+      </c>
+      <c r="F331" t="s">
+        <v>232</v>
+      </c>
+      <c r="G331" t="s">
+        <v>235</v>
+      </c>
+      <c r="H331">
+        <v>600</v>
+      </c>
+      <c r="I331">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s">
+        <v>11</v>
+      </c>
+      <c r="C332" s="2">
+        <v>45344.43263888889</v>
+      </c>
+      <c r="D332" t="s">
+        <v>23</v>
+      </c>
+      <c r="E332" t="s">
+        <v>222</v>
+      </c>
+      <c r="F332" t="s">
+        <v>224</v>
+      </c>
+      <c r="G332" t="s">
+        <v>236</v>
+      </c>
+      <c r="H332">
+        <v>600</v>
+      </c>
+      <c r="I332">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>12</v>
+      </c>
+      <c r="C333" s="2">
+        <v>45344.43263888889</v>
+      </c>
+      <c r="D333" t="s">
+        <v>198</v>
+      </c>
+      <c r="E333" t="s">
+        <v>222</v>
+      </c>
+      <c r="F333" t="s">
+        <v>225</v>
+      </c>
+      <c r="G333" t="s">
+        <v>237</v>
+      </c>
+      <c r="H333">
+        <v>600</v>
+      </c>
+      <c r="I333">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
+        <v>8</v>
+      </c>
+      <c r="C334" s="2">
+        <v>45344.43263888889</v>
+      </c>
+      <c r="D334" t="s">
+        <v>199</v>
+      </c>
+      <c r="E334" t="s">
+        <v>222</v>
+      </c>
+      <c r="G334" t="s">
+        <v>8</v>
+      </c>
+      <c r="H334">
+        <v>600</v>
+      </c>
+      <c r="I334">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" s="2">
+        <v>45344.43263888889</v>
+      </c>
+      <c r="D335" t="s">
+        <v>162</v>
+      </c>
+      <c r="E335" t="s">
+        <v>222</v>
+      </c>
+      <c r="F335" t="s">
+        <v>233</v>
+      </c>
+      <c r="G335" t="s">
+        <v>238</v>
+      </c>
+      <c r="H335">
+        <v>600</v>
+      </c>
+      <c r="I335">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>13</v>
+      </c>
+      <c r="C336" s="2">
+        <v>45344.43263888889</v>
+      </c>
+      <c r="D336" t="s">
+        <v>50</v>
+      </c>
+      <c r="E336" t="s">
+        <v>222</v>
+      </c>
+      <c r="F336" t="s">
+        <v>230</v>
+      </c>
+      <c r="H336">
+        <v>600</v>
+      </c>
+      <c r="I336">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>14</v>
+      </c>
+      <c r="C337" s="2">
+        <v>45344.43263888889</v>
+      </c>
+      <c r="D337" t="s">
+        <v>200</v>
+      </c>
+      <c r="E337" t="s">
+        <v>222</v>
+      </c>
+      <c r="F337" t="s">
+        <v>231</v>
+      </c>
+      <c r="H337">
+        <v>600</v>
+      </c>
+      <c r="I337">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>16</v>
+      </c>
+      <c r="C338" s="2">
+        <v>45363.00048611111</v>
+      </c>
+      <c r="D338" t="s">
+        <v>201</v>
+      </c>
+      <c r="G338" t="s">
+        <v>239</v>
+      </c>
+      <c r="H338">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" s="2">
+        <v>45363.38194444445</v>
+      </c>
+      <c r="D339" t="s">
+        <v>133</v>
+      </c>
+      <c r="E339" t="s">
+        <v>222</v>
+      </c>
+      <c r="F339" t="s">
+        <v>232</v>
+      </c>
+      <c r="G339" t="s">
+        <v>235</v>
+      </c>
+      <c r="H339">
+        <v>600</v>
+      </c>
+      <c r="I339">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>11</v>
+      </c>
+      <c r="C340" s="2">
+        <v>45363.38194444445</v>
+      </c>
+      <c r="D340" t="s">
+        <v>23</v>
+      </c>
+      <c r="E340" t="s">
+        <v>222</v>
+      </c>
+      <c r="F340" t="s">
+        <v>224</v>
+      </c>
+      <c r="G340" t="s">
+        <v>236</v>
+      </c>
+      <c r="H340">
+        <v>600</v>
+      </c>
+      <c r="I340">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341" s="2">
+        <v>45363.38194444445</v>
+      </c>
+      <c r="D341" t="s">
+        <v>45</v>
+      </c>
+      <c r="E341" t="s">
+        <v>222</v>
+      </c>
+      <c r="F341" t="s">
+        <v>225</v>
+      </c>
+      <c r="G341" t="s">
+        <v>237</v>
+      </c>
+      <c r="H341">
+        <v>600</v>
+      </c>
+      <c r="I341">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342" s="2">
+        <v>45363.38194444445</v>
+      </c>
+      <c r="D342" t="s">
+        <v>116</v>
+      </c>
+      <c r="E342" t="s">
+        <v>222</v>
+      </c>
+      <c r="G342" t="s">
+        <v>8</v>
+      </c>
+      <c r="H342">
+        <v>600</v>
+      </c>
+      <c r="I342">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>15</v>
+      </c>
+      <c r="C343" s="2">
+        <v>45363.38194444445</v>
+      </c>
+      <c r="D343" t="s">
+        <v>125</v>
+      </c>
+      <c r="E343" t="s">
+        <v>222</v>
+      </c>
+      <c r="F343" t="s">
+        <v>233</v>
+      </c>
+      <c r="G343" t="s">
+        <v>238</v>
+      </c>
+      <c r="H343">
+        <v>600</v>
+      </c>
+      <c r="I343">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s">
+        <v>13</v>
+      </c>
+      <c r="C344" s="2">
+        <v>45363.38194444445</v>
+      </c>
+      <c r="D344" t="s">
+        <v>169</v>
+      </c>
+      <c r="E344" t="s">
+        <v>222</v>
+      </c>
+      <c r="F344" t="s">
+        <v>230</v>
+      </c>
+      <c r="H344">
+        <v>600</v>
+      </c>
+      <c r="I344">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>14</v>
+      </c>
+      <c r="C345" s="2">
+        <v>45363.38194444445</v>
+      </c>
+      <c r="D345" t="s">
+        <v>183</v>
+      </c>
+      <c r="E345" t="s">
+        <v>222</v>
+      </c>
+      <c r="F345" t="s">
+        <v>231</v>
+      </c>
+      <c r="H345">
+        <v>600</v>
+      </c>
+      <c r="I345">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>16</v>
+      </c>
+      <c r="C346" s="2">
+        <v>45398.00048611111</v>
+      </c>
+      <c r="D346" t="s">
+        <v>202</v>
+      </c>
+      <c r="G346" t="s">
+        <v>239</v>
+      </c>
+      <c r="H346">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>10</v>
+      </c>
+      <c r="C347" s="2">
+        <v>45398.41805555556</v>
+      </c>
+      <c r="D347" t="s">
+        <v>76</v>
+      </c>
+      <c r="E347" t="s">
+        <v>222</v>
+      </c>
+      <c r="F347" t="s">
+        <v>232</v>
+      </c>
+      <c r="G347" t="s">
+        <v>235</v>
+      </c>
+      <c r="H347">
+        <v>600</v>
+      </c>
+      <c r="I347">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>11</v>
+      </c>
+      <c r="C348" s="2">
+        <v>45398.41805555556</v>
+      </c>
+      <c r="D348" t="s">
+        <v>18</v>
+      </c>
+      <c r="E348" t="s">
+        <v>222</v>
+      </c>
+      <c r="F348" t="s">
+        <v>224</v>
+      </c>
+      <c r="G348" t="s">
+        <v>236</v>
+      </c>
+      <c r="H348">
+        <v>600</v>
+      </c>
+      <c r="I348">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" s="2">
+        <v>45398.41805555556</v>
+      </c>
+      <c r="D349" t="s">
+        <v>45</v>
+      </c>
+      <c r="E349" t="s">
+        <v>222</v>
+      </c>
+      <c r="F349" t="s">
+        <v>225</v>
+      </c>
+      <c r="G349" t="s">
+        <v>237</v>
+      </c>
+      <c r="H349">
+        <v>600</v>
+      </c>
+      <c r="I349">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45398.41805555556</v>
+      </c>
+      <c r="D350" t="s">
+        <v>203</v>
+      </c>
+      <c r="E350" t="s">
+        <v>222</v>
+      </c>
+      <c r="G350" t="s">
+        <v>8</v>
+      </c>
+      <c r="H350">
+        <v>600</v>
+      </c>
+      <c r="I350">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>15</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45398.41805555556</v>
+      </c>
+      <c r="D351" t="s">
+        <v>162</v>
+      </c>
+      <c r="E351" t="s">
+        <v>222</v>
+      </c>
+      <c r="F351" t="s">
+        <v>233</v>
+      </c>
+      <c r="G351" t="s">
+        <v>238</v>
+      </c>
+      <c r="H351">
+        <v>600</v>
+      </c>
+      <c r="I351">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>13</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45398.41805555556</v>
+      </c>
+      <c r="D352" t="s">
+        <v>46</v>
+      </c>
+      <c r="E352" t="s">
+        <v>222</v>
+      </c>
+      <c r="F352" t="s">
+        <v>230</v>
+      </c>
+      <c r="H352">
+        <v>600</v>
+      </c>
+      <c r="I352">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>14</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45398.41805555556</v>
+      </c>
+      <c r="D353" t="s">
+        <v>204</v>
+      </c>
+      <c r="E353" t="s">
+        <v>222</v>
+      </c>
+      <c r="F353" t="s">
+        <v>231</v>
+      </c>
+      <c r="H353">
+        <v>600</v>
+      </c>
+      <c r="I353">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>16</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45511.00048611111</v>
+      </c>
+      <c r="D354" t="s">
+        <v>205</v>
+      </c>
+      <c r="G354" t="s">
+        <v>239</v>
+      </c>
+      <c r="H354">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>10</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45511.38888888889</v>
+      </c>
+      <c r="D355" t="s">
+        <v>206</v>
+      </c>
+      <c r="E355" t="s">
+        <v>222</v>
+      </c>
+      <c r="F355" t="s">
+        <v>234</v>
+      </c>
+      <c r="G355" t="s">
+        <v>235</v>
+      </c>
+      <c r="H355">
+        <v>600</v>
+      </c>
+      <c r="I355">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>11</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45511.38888888889</v>
+      </c>
+      <c r="D356" t="s">
+        <v>23</v>
+      </c>
+      <c r="E356" t="s">
+        <v>222</v>
+      </c>
+      <c r="F356" t="s">
+        <v>224</v>
+      </c>
+      <c r="G356" t="s">
+        <v>236</v>
+      </c>
+      <c r="H356">
+        <v>600</v>
+      </c>
+      <c r="I356">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45511.38888888889</v>
+      </c>
+      <c r="D357" t="s">
+        <v>45</v>
+      </c>
+      <c r="E357" t="s">
+        <v>222</v>
+      </c>
+      <c r="F357" t="s">
+        <v>225</v>
+      </c>
+      <c r="G357" t="s">
+        <v>237</v>
+      </c>
+      <c r="H357">
+        <v>600</v>
+      </c>
+      <c r="I357">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45511.38888888889</v>
+      </c>
+      <c r="D358" t="s">
+        <v>207</v>
+      </c>
+      <c r="E358" t="s">
+        <v>222</v>
+      </c>
+      <c r="G358" t="s">
+        <v>8</v>
+      </c>
+      <c r="H358">
+        <v>600</v>
+      </c>
+      <c r="I358">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>15</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45511.38888888889</v>
+      </c>
+      <c r="D359" t="s">
+        <v>208</v>
+      </c>
+      <c r="E359" t="s">
+        <v>222</v>
+      </c>
+      <c r="F359" t="s">
+        <v>233</v>
+      </c>
+      <c r="G359" t="s">
+        <v>238</v>
+      </c>
+      <c r="H359">
+        <v>600</v>
+      </c>
+      <c r="I359">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>13</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45511.38888888889</v>
+      </c>
+      <c r="D360" t="s">
+        <v>209</v>
+      </c>
+      <c r="E360" t="s">
+        <v>222</v>
+      </c>
+      <c r="F360" t="s">
+        <v>230</v>
+      </c>
+      <c r="H360">
+        <v>600</v>
+      </c>
+      <c r="I360">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>14</v>
+      </c>
+      <c r="C361" s="2">
+        <v>45511.38888888889</v>
+      </c>
+      <c r="D361" t="s">
+        <v>210</v>
+      </c>
+      <c r="E361" t="s">
+        <v>222</v>
+      </c>
+      <c r="F361" t="s">
+        <v>231</v>
+      </c>
+      <c r="H361">
+        <v>600</v>
+      </c>
+      <c r="I361">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>16</v>
+      </c>
+      <c r="C362" s="2">
+        <v>45558.00048611111</v>
+      </c>
+      <c r="D362" t="s">
+        <v>211</v>
+      </c>
+      <c r="G362" t="s">
+        <v>239</v>
+      </c>
+      <c r="H362">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>10</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45558.40555555555</v>
+      </c>
+      <c r="D363" t="s">
+        <v>206</v>
+      </c>
+      <c r="E363" t="s">
+        <v>222</v>
+      </c>
+      <c r="F363" t="s">
+        <v>232</v>
+      </c>
+      <c r="G363" t="s">
+        <v>235</v>
+      </c>
+      <c r="H363">
+        <v>600</v>
+      </c>
+      <c r="I363">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45558.40555555555</v>
+      </c>
+      <c r="D364" t="s">
+        <v>23</v>
+      </c>
+      <c r="E364" t="s">
+        <v>222</v>
+      </c>
+      <c r="F364" t="s">
+        <v>224</v>
+      </c>
+      <c r="G364" t="s">
+        <v>236</v>
+      </c>
+      <c r="H364">
+        <v>600</v>
+      </c>
+      <c r="I364">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>12</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45558.40555555555</v>
+      </c>
+      <c r="D365" t="s">
+        <v>121</v>
+      </c>
+      <c r="E365" t="s">
+        <v>222</v>
+      </c>
+      <c r="F365" t="s">
+        <v>225</v>
+      </c>
+      <c r="G365" t="s">
+        <v>237</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+      <c r="I365">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>8</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45558.40555555555</v>
+      </c>
+      <c r="D366" t="s">
+        <v>212</v>
+      </c>
+      <c r="E366" t="s">
+        <v>222</v>
+      </c>
+      <c r="G366" t="s">
+        <v>8</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+      <c r="I366">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>15</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45558.40555555555</v>
+      </c>
+      <c r="D367" t="s">
+        <v>213</v>
+      </c>
+      <c r="E367" t="s">
+        <v>222</v>
+      </c>
+      <c r="F367" t="s">
+        <v>233</v>
+      </c>
+      <c r="G367" t="s">
+        <v>238</v>
+      </c>
+      <c r="H367">
+        <v>600</v>
+      </c>
+      <c r="I367">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>13</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45558.40555555555</v>
+      </c>
+      <c r="D368" t="s">
+        <v>214</v>
+      </c>
+      <c r="E368" t="s">
+        <v>222</v>
+      </c>
+      <c r="F368" t="s">
+        <v>230</v>
+      </c>
+      <c r="H368">
+        <v>600</v>
+      </c>
+      <c r="I368">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>14</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45558.40555555555</v>
+      </c>
+      <c r="D369" t="s">
+        <v>215</v>
+      </c>
+      <c r="E369" t="s">
+        <v>222</v>
+      </c>
+      <c r="F369" t="s">
+        <v>231</v>
+      </c>
+      <c r="H369">
+        <v>600</v>
+      </c>
+      <c r="I369">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>16</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45587.00048611111</v>
+      </c>
+      <c r="D370" t="s">
+        <v>211</v>
+      </c>
+      <c r="G370" t="s">
+        <v>239</v>
+      </c>
+      <c r="H370">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>10</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45587.40555555555</v>
+      </c>
+      <c r="D371" t="s">
+        <v>76</v>
+      </c>
+      <c r="E371" t="s">
+        <v>222</v>
+      </c>
+      <c r="F371" t="s">
+        <v>232</v>
+      </c>
+      <c r="G371" t="s">
+        <v>235</v>
+      </c>
+      <c r="H371">
+        <v>600</v>
+      </c>
+      <c r="I371">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45587.40555555555</v>
+      </c>
+      <c r="D372" t="s">
+        <v>23</v>
+      </c>
+      <c r="E372" t="s">
+        <v>222</v>
+      </c>
+      <c r="F372" t="s">
+        <v>224</v>
+      </c>
+      <c r="G372" t="s">
+        <v>236</v>
+      </c>
+      <c r="H372">
+        <v>600</v>
+      </c>
+      <c r="I372">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45587.40555555555</v>
+      </c>
+      <c r="D373" t="s">
+        <v>216</v>
+      </c>
+      <c r="E373" t="s">
+        <v>222</v>
+      </c>
+      <c r="F373" t="s">
+        <v>225</v>
+      </c>
+      <c r="G373" t="s">
+        <v>237</v>
+      </c>
+      <c r="H373">
+        <v>600</v>
+      </c>
+      <c r="I373">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>8</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45587.40555555555</v>
+      </c>
+      <c r="D374" t="s">
+        <v>217</v>
+      </c>
+      <c r="E374" t="s">
+        <v>222</v>
+      </c>
+      <c r="G374" t="s">
+        <v>8</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+      <c r="I374">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>15</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45587.40555555555</v>
+      </c>
+      <c r="D375" t="s">
+        <v>162</v>
+      </c>
+      <c r="E375" t="s">
+        <v>222</v>
+      </c>
+      <c r="F375" t="s">
+        <v>233</v>
+      </c>
+      <c r="G375" t="s">
+        <v>238</v>
+      </c>
+      <c r="H375">
+        <v>600</v>
+      </c>
+      <c r="I375">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>13</v>
+      </c>
+      <c r="C376" s="2">
+        <v>45587.40555555555</v>
+      </c>
+      <c r="D376" t="s">
+        <v>218</v>
+      </c>
+      <c r="E376" t="s">
+        <v>222</v>
+      </c>
+      <c r="F376" t="s">
+        <v>230</v>
+      </c>
+      <c r="H376">
+        <v>600</v>
+      </c>
+      <c r="I376">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>14</v>
+      </c>
+      <c r="C377" s="2">
+        <v>45587.40555555555</v>
+      </c>
+      <c r="D377" t="s">
+        <v>26</v>
+      </c>
+      <c r="E377" t="s">
+        <v>222</v>
+      </c>
+      <c r="F377" t="s">
+        <v>231</v>
+      </c>
+      <c r="H377">
+        <v>600</v>
+      </c>
+      <c r="I377">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>16</v>
+      </c>
+      <c r="C378" s="2">
+        <v>45636.00048611111</v>
+      </c>
+      <c r="D378" t="s">
+        <v>219</v>
+      </c>
+      <c r="G378" t="s">
+        <v>239</v>
+      </c>
+      <c r="H378">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>10</v>
+      </c>
+      <c r="C379" s="2">
+        <v>45636.39305555556</v>
+      </c>
+      <c r="D379" t="s">
+        <v>162</v>
+      </c>
+      <c r="E379" t="s">
+        <v>222</v>
+      </c>
+      <c r="F379" t="s">
+        <v>232</v>
+      </c>
+      <c r="G379" t="s">
+        <v>235</v>
+      </c>
+      <c r="H379">
+        <v>600</v>
+      </c>
+      <c r="I379">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>11</v>
+      </c>
+      <c r="C380" s="2">
+        <v>45636.39305555556</v>
+      </c>
+      <c r="D380" t="s">
+        <v>195</v>
+      </c>
+      <c r="E380" t="s">
+        <v>222</v>
+      </c>
+      <c r="F380" t="s">
+        <v>224</v>
+      </c>
+      <c r="G380" t="s">
+        <v>236</v>
+      </c>
+      <c r="H380">
+        <v>600</v>
+      </c>
+      <c r="I380">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>12</v>
+      </c>
+      <c r="C381" s="2">
+        <v>45636.39305555556</v>
+      </c>
+      <c r="D381" t="s">
+        <v>61</v>
+      </c>
+      <c r="E381" t="s">
+        <v>222</v>
+      </c>
+      <c r="F381" t="s">
+        <v>225</v>
+      </c>
+      <c r="G381" t="s">
+        <v>237</v>
+      </c>
+      <c r="H381">
+        <v>600</v>
+      </c>
+      <c r="I381">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382" s="2">
+        <v>45636.39305555556</v>
+      </c>
+      <c r="D382" t="s">
+        <v>220</v>
+      </c>
+      <c r="E382" t="s">
+        <v>222</v>
+      </c>
+      <c r="G382" t="s">
+        <v>8</v>
+      </c>
+      <c r="H382">
+        <v>600</v>
+      </c>
+      <c r="I382">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>15</v>
+      </c>
+      <c r="C383" s="2">
+        <v>45636.39305555556</v>
+      </c>
+      <c r="D383" t="s">
+        <v>162</v>
+      </c>
+      <c r="E383" t="s">
+        <v>222</v>
+      </c>
+      <c r="F383" t="s">
+        <v>233</v>
+      </c>
+      <c r="G383" t="s">
+        <v>238</v>
+      </c>
+      <c r="H383">
+        <v>600</v>
+      </c>
+      <c r="I383">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s">
+        <v>13</v>
+      </c>
+      <c r="C384" s="2">
+        <v>45636.39305555556</v>
+      </c>
+      <c r="D384" t="s">
+        <v>221</v>
+      </c>
+      <c r="E384" t="s">
+        <v>222</v>
+      </c>
+      <c r="F384" t="s">
+        <v>230</v>
+      </c>
+      <c r="H384">
+        <v>600</v>
+      </c>
+      <c r="I384">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" t="s">
+        <v>14</v>
+      </c>
+      <c r="C385" s="2">
+        <v>45636.39305555556</v>
+      </c>
+      <c r="D385" t="s">
+        <v>74</v>
+      </c>
+      <c r="E385" t="s">
+        <v>222</v>
+      </c>
+      <c r="F385" t="s">
+        <v>231</v>
+      </c>
+      <c r="H385">
+        <v>600</v>
+      </c>
+      <c r="I385">
+        <v>8.859999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/Lakes/LakeKoitiata_919f8c7962.xlsx
+++ b/data/Lakes/LakeKoitiata_919f8c7962.xlsx
@@ -64,7 +64,7 @@
     <t>Nitrate Nitrogen (NO3)</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>0.0050</t>
